--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -52,79 +52,79 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7226027397260274</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4497354497354497</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.310077519379845</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +704,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -730,13 +730,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -756,13 +756,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -782,13 +782,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -808,13 +808,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -834,13 +834,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7924528301886793</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -860,13 +860,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.765625</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -886,13 +886,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7625</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -912,13 +912,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -938,13 +938,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -964,13 +964,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -990,13 +990,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1016,13 +1016,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1042,13 +1042,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1068,13 +1068,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1094,13 +1094,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1120,13 +1120,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5823529411764706</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L22">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1146,13 +1146,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5690376569037657</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1172,13 +1172,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5319148936170213</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1198,25 +1198,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5306122448979592</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M25">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1250,13 +1250,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5230769230769231</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1276,13 +1276,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.449438202247191</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
